--- a/TXN_DATA.xlsx
+++ b/TXN_DATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\giza\Giza_Grant_AnomalyDetect\caipca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\giza\fraud_detection_zkml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C97C9BF-51C1-43D2-AAD3-F33F946E2F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008756B8-A032-44FE-BA1B-0D933DEED3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>OCCUPATION RISK</t>
   </si>
   <si>
-    <t>EYE</t>
-  </si>
-  <si>
     <t>TxJurisdiction</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Saliente</t>
+  </si>
+  <si>
+    <t>CAT</t>
   </si>
 </sst>
 </file>
@@ -170,18 +170,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -225,11 +219,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,33 +553,33 @@
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>44563</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -619,14 +613,14 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>44564</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -660,14 +654,14 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>44564</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -701,14 +695,14 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>44566</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -742,14 +736,14 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>44567</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -783,14 +777,14 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>44569</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -824,14 +818,14 @@
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>44570</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -865,14 +859,14 @@
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>44571</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -906,14 +900,14 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>44572</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -947,14 +941,14 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>44572</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -988,14 +982,14 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>44573</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1029,14 +1023,14 @@
         <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>44573</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1070,14 +1064,14 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>44574</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1111,14 +1105,14 @@
         <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>44576</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1152,14 +1146,14 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>44577</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1193,14 +1187,14 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>44578</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1234,14 +1228,14 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>44578</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1275,14 +1269,14 @@
         <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>44579</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1316,14 +1310,14 @@
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>44579</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1357,14 +1351,14 @@
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>44579</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1398,14 +1392,14 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>44581</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1439,14 +1433,14 @@
         <v>2</v>
       </c>
       <c r="L22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>44581</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1480,14 +1474,14 @@
         <v>2</v>
       </c>
       <c r="L23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>44581</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1521,14 +1515,14 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>44582</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1562,14 +1556,14 @@
         <v>2</v>
       </c>
       <c r="L25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>44582</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1603,14 +1597,14 @@
         <v>2</v>
       </c>
       <c r="L26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>44582</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1644,14 +1638,14 @@
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>44583</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1685,14 +1679,14 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>44583</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1726,14 +1720,14 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>44584</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1767,14 +1761,14 @@
         <v>2</v>
       </c>
       <c r="L30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>44584</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1808,14 +1802,14 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>44585</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1849,14 +1843,14 @@
         <v>2</v>
       </c>
       <c r="L32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>44585</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1890,14 +1884,14 @@
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>44587</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1931,14 +1925,14 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>44588</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1972,14 +1966,14 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>44589</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2013,14 +2007,14 @@
         <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>44589</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2054,14 +2048,14 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>44589</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2095,14 +2089,14 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>44591</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2136,14 +2130,14 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>44592</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2177,14 +2171,14 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>44593</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2218,14 +2212,14 @@
         <v>2</v>
       </c>
       <c r="L41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>44594</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2259,14 +2253,14 @@
         <v>2</v>
       </c>
       <c r="L42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>44594</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2300,14 +2294,14 @@
         <v>2</v>
       </c>
       <c r="L43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>44594</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2341,14 +2335,14 @@
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>44595</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2382,14 +2376,14 @@
         <v>2</v>
       </c>
       <c r="L45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>44595</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2423,14 +2417,14 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>44596</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2464,14 +2458,14 @@
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>44596</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2505,14 +2499,14 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>44597</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2546,14 +2540,14 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>44598</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2587,14 +2581,14 @@
         <v>2</v>
       </c>
       <c r="L50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>44598</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2628,14 +2622,14 @@
         <v>3</v>
       </c>
       <c r="L51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>44598</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2669,14 +2663,14 @@
         <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>44599</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2710,14 +2704,14 @@
         <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>44599</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2751,14 +2745,14 @@
         <v>2</v>
       </c>
       <c r="L54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>44600</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2792,14 +2786,14 @@
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>44601</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2833,14 +2827,14 @@
         <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>44602</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2874,14 +2868,14 @@
         <v>2</v>
       </c>
       <c r="L57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>44604</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2915,14 +2909,14 @@
         <v>3</v>
       </c>
       <c r="L58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>44604</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -2956,14 +2950,14 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>44605</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2997,14 +2991,14 @@
         <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>44605</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -3038,14 +3032,14 @@
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>44606</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -3079,14 +3073,14 @@
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>44607</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3120,14 +3114,14 @@
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>44609</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -3161,14 +3155,14 @@
         <v>3</v>
       </c>
       <c r="L64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
+      <c r="A65" s="6">
         <v>44609</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3202,14 +3196,14 @@
         <v>2</v>
       </c>
       <c r="L65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="7">
+      <c r="A66" s="6">
         <v>44610</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -3243,14 +3237,14 @@
         <v>2</v>
       </c>
       <c r="L66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="7">
+      <c r="A67" s="6">
         <v>44610</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -3284,14 +3278,14 @@
         <v>1</v>
       </c>
       <c r="L67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
+      <c r="A68" s="6">
         <v>44611</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -3325,14 +3319,14 @@
         <v>1</v>
       </c>
       <c r="L68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
+      <c r="A69" s="6">
         <v>44612</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -3366,14 +3360,14 @@
         <v>2</v>
       </c>
       <c r="L69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
+      <c r="A70" s="6">
         <v>44613</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -3407,14 +3401,14 @@
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
+      <c r="A71" s="6">
         <v>44614</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -3448,14 +3442,14 @@
         <v>2</v>
       </c>
       <c r="L71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M71">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
+      <c r="A72" s="6">
         <v>44615</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3489,14 +3483,14 @@
         <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="7">
+      <c r="A73" s="6">
         <v>44617</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3530,14 +3524,14 @@
         <v>1</v>
       </c>
       <c r="L73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
+      <c r="A74" s="6">
         <v>44622</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3571,14 +3565,14 @@
         <v>2</v>
       </c>
       <c r="L74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="7">
+      <c r="A75" s="6">
         <v>44622</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -3612,14 +3606,14 @@
         <v>2</v>
       </c>
       <c r="L75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="7">
+      <c r="A76" s="6">
         <v>44623</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -3653,14 +3647,14 @@
         <v>2</v>
       </c>
       <c r="L76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="7">
+      <c r="A77" s="6">
         <v>44623</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -3694,14 +3688,14 @@
         <v>2</v>
       </c>
       <c r="L77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M77">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="7">
+      <c r="A78" s="6">
         <v>44624</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3735,14 +3729,14 @@
         <v>2</v>
       </c>
       <c r="L78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" s="7">
+      <c r="A79" s="6">
         <v>44626</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3776,14 +3770,14 @@
         <v>1</v>
       </c>
       <c r="L79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M79">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="7">
+      <c r="A80" s="6">
         <v>44627</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3817,14 +3811,14 @@
         <v>2</v>
       </c>
       <c r="L80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M80">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" s="7">
+      <c r="A81" s="6">
         <v>44628</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3858,14 +3852,14 @@
         <v>2</v>
       </c>
       <c r="L81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M81">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" s="7">
+      <c r="A82" s="6">
         <v>44629</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3899,14 +3893,14 @@
         <v>1</v>
       </c>
       <c r="L82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" s="7">
+      <c r="A83" s="6">
         <v>44629</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3940,14 +3934,14 @@
         <v>1</v>
       </c>
       <c r="L83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" s="7">
+      <c r="A84" s="6">
         <v>44630</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3981,14 +3975,14 @@
         <v>1</v>
       </c>
       <c r="L84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M84">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85" s="7">
+      <c r="A85" s="6">
         <v>44630</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -4022,14 +4016,14 @@
         <v>1</v>
       </c>
       <c r="L85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M85">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" s="7">
+      <c r="A86" s="6">
         <v>44630</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -4063,14 +4057,14 @@
         <v>1</v>
       </c>
       <c r="L86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M86">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87" s="7">
+      <c r="A87" s="6">
         <v>44631</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -4104,14 +4098,14 @@
         <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" s="7">
+      <c r="A88" s="6">
         <v>44632</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -4145,14 +4139,14 @@
         <v>1</v>
       </c>
       <c r="L88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M88">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89" s="7">
+      <c r="A89" s="6">
         <v>44632</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -4186,14 +4180,14 @@
         <v>1</v>
       </c>
       <c r="L89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90" s="7">
+      <c r="A90" s="6">
         <v>44634</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -4227,14 +4221,14 @@
         <v>1</v>
       </c>
       <c r="L90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M90">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A91" s="7">
+      <c r="A91" s="6">
         <v>44635</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -4268,14 +4262,14 @@
         <v>1</v>
       </c>
       <c r="L91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M91">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A92" s="7">
+      <c r="A92" s="6">
         <v>44636</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -4309,14 +4303,14 @@
         <v>2</v>
       </c>
       <c r="L92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" s="7">
+      <c r="A93" s="6">
         <v>44638</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -4350,14 +4344,14 @@
         <v>1</v>
       </c>
       <c r="L93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94" s="7">
+      <c r="A94" s="6">
         <v>44639</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -4391,14 +4385,14 @@
         <v>1</v>
       </c>
       <c r="L94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" s="7">
+      <c r="A95" s="6">
         <v>44639</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -4432,14 +4426,14 @@
         <v>1</v>
       </c>
       <c r="L95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M95">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A96" s="7">
+      <c r="A96" s="6">
         <v>44639</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -4473,14 +4467,14 @@
         <v>1</v>
       </c>
       <c r="L96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M96">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A97" s="7">
+      <c r="A97" s="6">
         <v>44640</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -4514,14 +4508,14 @@
         <v>1</v>
       </c>
       <c r="L97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M97">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A98" s="7">
+      <c r="A98" s="6">
         <v>44643</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -4555,14 +4549,14 @@
         <v>1</v>
       </c>
       <c r="L98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M98">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A99" s="7">
+      <c r="A99" s="6">
         <v>44645</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -4596,14 +4590,14 @@
         <v>1</v>
       </c>
       <c r="L99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M99">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A100" s="7">
+      <c r="A100" s="6">
         <v>44646</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -4637,14 +4631,14 @@
         <v>2</v>
       </c>
       <c r="L100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M100">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A101" s="7">
+      <c r="A101" s="6">
         <v>44648</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -4678,14 +4672,14 @@
         <v>1</v>
       </c>
       <c r="L101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M101">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A102" s="7">
+      <c r="A102" s="6">
         <v>44649</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -4719,14 +4713,14 @@
         <v>2</v>
       </c>
       <c r="L102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A103" s="7">
+      <c r="A103" s="6">
         <v>44654</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -4760,14 +4754,14 @@
         <v>3</v>
       </c>
       <c r="L103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M103">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A104" s="7">
+      <c r="A104" s="6">
         <v>44655</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -4801,14 +4795,14 @@
         <v>1</v>
       </c>
       <c r="L104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M104">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A105" s="7">
+      <c r="A105" s="6">
         <v>44655</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -4842,14 +4836,14 @@
         <v>1</v>
       </c>
       <c r="L105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M105">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A106" s="7">
+      <c r="A106" s="6">
         <v>44656</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -4883,14 +4877,14 @@
         <v>2</v>
       </c>
       <c r="L106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M106">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A107" s="7">
+      <c r="A107" s="6">
         <v>44656</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -4924,14 +4918,14 @@
         <v>2</v>
       </c>
       <c r="L107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M107">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A108" s="7">
+      <c r="A108" s="6">
         <v>44659</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -4965,14 +4959,14 @@
         <v>1</v>
       </c>
       <c r="L108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M108">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A109" s="7">
+      <c r="A109" s="6">
         <v>44659</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -5006,14 +5000,14 @@
         <v>1</v>
       </c>
       <c r="L109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A110" s="7">
+      <c r="A110" s="6">
         <v>44660</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -5047,14 +5041,14 @@
         <v>2</v>
       </c>
       <c r="L110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M110">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A111" s="7">
+      <c r="A111" s="6">
         <v>44660</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -5088,14 +5082,14 @@
         <v>1</v>
       </c>
       <c r="L111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M111">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A112" s="7">
+      <c r="A112" s="6">
         <v>44662</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -5129,14 +5123,14 @@
         <v>1</v>
       </c>
       <c r="L112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M112">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A113" s="7">
+      <c r="A113" s="6">
         <v>44663</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -5170,14 +5164,14 @@
         <v>2</v>
       </c>
       <c r="L113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M113">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A114" s="7">
+      <c r="A114" s="6">
         <v>44663</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -5211,14 +5205,14 @@
         <v>1</v>
       </c>
       <c r="L114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M114">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A115" s="7">
+      <c r="A115" s="6">
         <v>44665</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -5252,14 +5246,14 @@
         <v>2</v>
       </c>
       <c r="L115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M115">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A116" s="7">
+      <c r="A116" s="6">
         <v>44665</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -5293,14 +5287,14 @@
         <v>1</v>
       </c>
       <c r="L116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M116">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A117" s="7">
+      <c r="A117" s="6">
         <v>44666</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -5334,14 +5328,14 @@
         <v>1</v>
       </c>
       <c r="L117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M117">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A118" s="7">
+      <c r="A118" s="6">
         <v>44667</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -5375,14 +5369,14 @@
         <v>1</v>
       </c>
       <c r="L118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M118">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A119" s="7">
+      <c r="A119" s="6">
         <v>44669</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -5416,14 +5410,14 @@
         <v>1</v>
       </c>
       <c r="L119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M119">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120" s="7">
+      <c r="A120" s="6">
         <v>44671</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -5457,14 +5451,14 @@
         <v>3</v>
       </c>
       <c r="L120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M120">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A121" s="7">
+      <c r="A121" s="6">
         <v>44672</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -5498,14 +5492,14 @@
         <v>1</v>
       </c>
       <c r="L121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M121">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A122" s="7">
+      <c r="A122" s="6">
         <v>44672</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -5539,14 +5533,14 @@
         <v>1</v>
       </c>
       <c r="L122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M122">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A123" s="7">
+      <c r="A123" s="6">
         <v>44672</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -5580,14 +5574,14 @@
         <v>1</v>
       </c>
       <c r="L123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M123">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A124" s="7">
+      <c r="A124" s="6">
         <v>44674</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -5621,14 +5615,14 @@
         <v>1</v>
       </c>
       <c r="L124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M124">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A125" s="7">
+      <c r="A125" s="6">
         <v>44674</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -5662,14 +5656,14 @@
         <v>1</v>
       </c>
       <c r="L125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M125">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A126" s="7">
+      <c r="A126" s="6">
         <v>44674</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -5703,14 +5697,14 @@
         <v>3</v>
       </c>
       <c r="L126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M126">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127" s="7">
+      <c r="A127" s="6">
         <v>44675</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -5744,14 +5738,14 @@
         <v>1</v>
       </c>
       <c r="L127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M127">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128" s="7">
+      <c r="A128" s="6">
         <v>44676</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -5785,14 +5779,14 @@
         <v>1</v>
       </c>
       <c r="L128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M128">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A129" s="7">
+      <c r="A129" s="6">
         <v>44676</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -5826,14 +5820,14 @@
         <v>1</v>
       </c>
       <c r="L129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M129">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A130" s="7">
+      <c r="A130" s="6">
         <v>44677</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -5867,14 +5861,14 @@
         <v>3</v>
       </c>
       <c r="L130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M130">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131" s="7">
+      <c r="A131" s="6">
         <v>44677</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -5908,14 +5902,14 @@
         <v>3</v>
       </c>
       <c r="L131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M131">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A132" s="7">
+      <c r="A132" s="6">
         <v>44677</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -5949,14 +5943,14 @@
         <v>1</v>
       </c>
       <c r="L132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M132">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A133" s="7">
+      <c r="A133" s="6">
         <v>44678</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -5990,14 +5984,14 @@
         <v>2</v>
       </c>
       <c r="L133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M133">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A134" s="7">
+      <c r="A134" s="6">
         <v>44678</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -6031,14 +6025,14 @@
         <v>1</v>
       </c>
       <c r="L134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M134">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A135" s="7">
+      <c r="A135" s="6">
         <v>44679</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -6072,14 +6066,14 @@
         <v>1</v>
       </c>
       <c r="L135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M135">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A136" s="7">
+      <c r="A136" s="6">
         <v>44680</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -6113,14 +6107,14 @@
         <v>2</v>
       </c>
       <c r="L136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M136">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A137" s="7">
+      <c r="A137" s="6">
         <v>44682</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -6154,14 +6148,14 @@
         <v>1</v>
       </c>
       <c r="L137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M137">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A138" s="7">
+      <c r="A138" s="6">
         <v>44682</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -6195,14 +6189,14 @@
         <v>2</v>
       </c>
       <c r="L138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M138">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A139" s="7">
+      <c r="A139" s="6">
         <v>44682</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -6236,14 +6230,14 @@
         <v>1</v>
       </c>
       <c r="L139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M139">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A140" s="7">
+      <c r="A140" s="6">
         <v>44683</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -6277,14 +6271,14 @@
         <v>1</v>
       </c>
       <c r="L140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M140">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A141" s="7">
+      <c r="A141" s="6">
         <v>44683</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -6318,14 +6312,14 @@
         <v>2</v>
       </c>
       <c r="L141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M141">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A142" s="7">
+      <c r="A142" s="6">
         <v>44684</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -6359,14 +6353,14 @@
         <v>3</v>
       </c>
       <c r="L142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M142">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A143" s="7">
+      <c r="A143" s="6">
         <v>44685</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -6400,14 +6394,14 @@
         <v>2</v>
       </c>
       <c r="L143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M143">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A144" s="7">
+      <c r="A144" s="6">
         <v>44685</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -6441,14 +6435,14 @@
         <v>2</v>
       </c>
       <c r="L144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M144">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A145" s="7">
+      <c r="A145" s="6">
         <v>44687</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -6482,14 +6476,14 @@
         <v>2</v>
       </c>
       <c r="L145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M145">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A146" s="7">
+      <c r="A146" s="6">
         <v>44687</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -6523,14 +6517,14 @@
         <v>1</v>
       </c>
       <c r="L146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M146">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A147" s="7">
+      <c r="A147" s="6">
         <v>44688</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -6564,14 +6558,14 @@
         <v>2</v>
       </c>
       <c r="L147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M147">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A148" s="7">
+      <c r="A148" s="6">
         <v>44688</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -6605,14 +6599,14 @@
         <v>1</v>
       </c>
       <c r="L148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M148">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A149" s="7">
+      <c r="A149" s="6">
         <v>44690</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -6646,14 +6640,14 @@
         <v>2</v>
       </c>
       <c r="L149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M149">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A150" s="7">
+      <c r="A150" s="6">
         <v>44692</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -6687,14 +6681,14 @@
         <v>1</v>
       </c>
       <c r="L150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M150">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A151" s="7">
+      <c r="A151" s="6">
         <v>44693</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -6728,14 +6722,14 @@
         <v>1</v>
       </c>
       <c r="L151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M151">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A152" s="7">
+      <c r="A152" s="6">
         <v>44694</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -6769,14 +6763,14 @@
         <v>1</v>
       </c>
       <c r="L152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M152">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A153" s="7">
+      <c r="A153" s="6">
         <v>44694</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -6810,14 +6804,14 @@
         <v>1</v>
       </c>
       <c r="L153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M153">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A154" s="7">
+      <c r="A154" s="6">
         <v>44694</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -6851,14 +6845,14 @@
         <v>1</v>
       </c>
       <c r="L154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M154">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A155" s="7">
+      <c r="A155" s="6">
         <v>44697</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -6892,14 +6886,14 @@
         <v>2</v>
       </c>
       <c r="L155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M155">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A156" s="7">
+      <c r="A156" s="6">
         <v>44699</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -6933,14 +6927,14 @@
         <v>1</v>
       </c>
       <c r="L156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M156">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A157" s="7">
+      <c r="A157" s="6">
         <v>44700</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -6974,14 +6968,14 @@
         <v>1</v>
       </c>
       <c r="L157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M157">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A158" s="7">
+      <c r="A158" s="6">
         <v>44700</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -7015,14 +7009,14 @@
         <v>1</v>
       </c>
       <c r="L158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M158">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A159" s="7">
+      <c r="A159" s="6">
         <v>44702</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -7056,14 +7050,14 @@
         <v>2</v>
       </c>
       <c r="L159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M159">
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A160" s="7">
+      <c r="A160" s="6">
         <v>44707</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -7097,14 +7091,14 @@
         <v>3</v>
       </c>
       <c r="L160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M160">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A161" s="7">
+      <c r="A161" s="6">
         <v>44707</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -7138,14 +7132,14 @@
         <v>1</v>
       </c>
       <c r="L161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M161">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A162" s="7">
+      <c r="A162" s="6">
         <v>44711</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -7179,14 +7173,14 @@
         <v>2</v>
       </c>
       <c r="L162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M162">
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A163" s="7">
+      <c r="A163" s="6">
         <v>44711</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -7220,14 +7214,14 @@
         <v>2</v>
       </c>
       <c r="L163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M163">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A164" s="7">
+      <c r="A164" s="6">
         <v>44712</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -7261,14 +7255,14 @@
         <v>1</v>
       </c>
       <c r="L164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M164">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A165" s="7">
+      <c r="A165" s="6">
         <v>44713</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -7302,14 +7296,14 @@
         <v>3</v>
       </c>
       <c r="L165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M165">
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A166" s="7">
+      <c r="A166" s="6">
         <v>44713</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -7343,14 +7337,14 @@
         <v>1</v>
       </c>
       <c r="L166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M166">
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A167" s="7">
+      <c r="A167" s="6">
         <v>44713</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -7384,14 +7378,14 @@
         <v>1</v>
       </c>
       <c r="L167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M167">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A168" s="7">
+      <c r="A168" s="6">
         <v>44715</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -7425,14 +7419,14 @@
         <v>2</v>
       </c>
       <c r="L168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M168">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A169" s="7">
+      <c r="A169" s="6">
         <v>44716</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -7466,14 +7460,14 @@
         <v>2</v>
       </c>
       <c r="L169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M169">
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A170" s="7">
+      <c r="A170" s="6">
         <v>44717</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -7507,14 +7501,14 @@
         <v>2</v>
       </c>
       <c r="L170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M170">
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A171" s="7">
+      <c r="A171" s="6">
         <v>44717</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -7548,14 +7542,14 @@
         <v>1</v>
       </c>
       <c r="L171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M171">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A172" s="7">
+      <c r="A172" s="6">
         <v>44719</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -7589,14 +7583,14 @@
         <v>2</v>
       </c>
       <c r="L172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M172">
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A173" s="7">
+      <c r="A173" s="6">
         <v>44720</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -7630,14 +7624,14 @@
         <v>1</v>
       </c>
       <c r="L173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M173">
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A174" s="7">
+      <c r="A174" s="6">
         <v>44720</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -7671,14 +7665,14 @@
         <v>1</v>
       </c>
       <c r="L174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M174">
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A175" s="7">
+      <c r="A175" s="6">
         <v>44720</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -7712,14 +7706,14 @@
         <v>1</v>
       </c>
       <c r="L175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M175">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A176" s="7">
+      <c r="A176" s="6">
         <v>44721</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -7753,14 +7747,14 @@
         <v>3</v>
       </c>
       <c r="L176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M176">
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A177" s="7">
+      <c r="A177" s="6">
         <v>44721</v>
       </c>
       <c r="B177" s="2" t="s">
@@ -7794,14 +7788,14 @@
         <v>2</v>
       </c>
       <c r="L177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M177">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A178" s="7">
+      <c r="A178" s="6">
         <v>44721</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -7835,14 +7829,14 @@
         <v>2</v>
       </c>
       <c r="L178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M178">
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A179" s="7">
+      <c r="A179" s="6">
         <v>44723</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -7876,14 +7870,14 @@
         <v>1</v>
       </c>
       <c r="L179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M179">
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A180" s="7">
+      <c r="A180" s="6">
         <v>44723</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -7917,14 +7911,14 @@
         <v>1</v>
       </c>
       <c r="L180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M180">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A181" s="7">
+      <c r="A181" s="6">
         <v>44725</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -7958,14 +7952,14 @@
         <v>1</v>
       </c>
       <c r="L181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M181">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A182" s="7">
+      <c r="A182" s="6">
         <v>44725</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -7999,14 +7993,14 @@
         <v>1</v>
       </c>
       <c r="L182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M182">
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A183" s="7">
+      <c r="A183" s="6">
         <v>44725</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -8040,14 +8034,14 @@
         <v>3</v>
       </c>
       <c r="L183" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M183">
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A184" s="7">
+      <c r="A184" s="6">
         <v>44726</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -8081,14 +8075,14 @@
         <v>3</v>
       </c>
       <c r="L184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M184">
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A185" s="7">
+      <c r="A185" s="6">
         <v>44727</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -8122,14 +8116,14 @@
         <v>2</v>
       </c>
       <c r="L185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M185">
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A186" s="7">
+      <c r="A186" s="6">
         <v>44728</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -8163,14 +8157,14 @@
         <v>1</v>
       </c>
       <c r="L186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M186">
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A187" s="7">
+      <c r="A187" s="6">
         <v>44729</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -8204,14 +8198,14 @@
         <v>1</v>
       </c>
       <c r="L187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M187">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A188" s="7">
+      <c r="A188" s="6">
         <v>44729</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -8245,14 +8239,14 @@
         <v>2</v>
       </c>
       <c r="L188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M188">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A189" s="7">
+      <c r="A189" s="6">
         <v>44729</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -8286,14 +8280,14 @@
         <v>1</v>
       </c>
       <c r="L189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M189">
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A190" s="7">
+      <c r="A190" s="6">
         <v>44731</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -8327,14 +8321,14 @@
         <v>1</v>
       </c>
       <c r="L190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M190">
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A191" s="7">
+      <c r="A191" s="6">
         <v>44732</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -8368,14 +8362,14 @@
         <v>1</v>
       </c>
       <c r="L191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M191">
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A192" s="7">
+      <c r="A192" s="6">
         <v>44733</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -8409,14 +8403,14 @@
         <v>1</v>
       </c>
       <c r="L192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M192">
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A193" s="7">
+      <c r="A193" s="6">
         <v>44733</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -8450,14 +8444,14 @@
         <v>1</v>
       </c>
       <c r="L193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M193">
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A194" s="7">
+      <c r="A194" s="6">
         <v>44734</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -8491,14 +8485,14 @@
         <v>1</v>
       </c>
       <c r="L194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M194">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A195" s="7">
+      <c r="A195" s="6">
         <v>44734</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -8532,14 +8526,14 @@
         <v>2</v>
       </c>
       <c r="L195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M195">
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A196" s="7">
+      <c r="A196" s="6">
         <v>44735</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -8573,14 +8567,14 @@
         <v>1</v>
       </c>
       <c r="L196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M196">
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A197" s="7">
+      <c r="A197" s="6">
         <v>44737</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -8614,14 +8608,14 @@
         <v>2</v>
       </c>
       <c r="L197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M197">
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A198" s="7">
+      <c r="A198" s="6">
         <v>44737</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -8655,14 +8649,14 @@
         <v>2</v>
       </c>
       <c r="L198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M198">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A199" s="7">
+      <c r="A199" s="6">
         <v>44738</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -8696,14 +8690,14 @@
         <v>1</v>
       </c>
       <c r="L199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M199">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A200" s="7">
+      <c r="A200" s="6">
         <v>44739</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -8737,14 +8731,14 @@
         <v>1</v>
       </c>
       <c r="L200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M200">
         <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A201" s="7">
+      <c r="A201" s="6">
         <v>44740</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -8778,14 +8772,14 @@
         <v>2</v>
       </c>
       <c r="L201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M201">
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A202" s="7">
+      <c r="A202" s="6">
         <v>44742</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -8819,14 +8813,14 @@
         <v>1</v>
       </c>
       <c r="L202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M202">
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A203" s="7">
+      <c r="A203" s="6">
         <v>44742</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -8860,14 +8854,14 @@
         <v>1</v>
       </c>
       <c r="L203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M203">
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A204" s="7">
+      <c r="A204" s="6">
         <v>44744</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -8901,14 +8895,14 @@
         <v>3</v>
       </c>
       <c r="L204" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M204">
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A205" s="7">
+      <c r="A205" s="6">
         <v>44744</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -8942,14 +8936,14 @@
         <v>2</v>
       </c>
       <c r="L205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M205">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A206" s="7">
+      <c r="A206" s="6">
         <v>44744</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -8983,14 +8977,14 @@
         <v>2</v>
       </c>
       <c r="L206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M206">
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A207" s="7">
+      <c r="A207" s="6">
         <v>44746</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -9024,14 +9018,14 @@
         <v>1</v>
       </c>
       <c r="L207" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M207">
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A208" s="7">
+      <c r="A208" s="6">
         <v>44748</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -9065,14 +9059,14 @@
         <v>1</v>
       </c>
       <c r="L208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M208">
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A209" s="7">
+      <c r="A209" s="6">
         <v>44748</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -9106,14 +9100,14 @@
         <v>3</v>
       </c>
       <c r="L209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M209">
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A210" s="7">
+      <c r="A210" s="6">
         <v>44749</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -9147,14 +9141,14 @@
         <v>2</v>
       </c>
       <c r="L210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M210">
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A211" s="7">
+      <c r="A211" s="6">
         <v>44750</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -9188,14 +9182,14 @@
         <v>1</v>
       </c>
       <c r="L211" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M211">
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A212" s="7">
+      <c r="A212" s="6">
         <v>44750</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -9229,14 +9223,14 @@
         <v>2</v>
       </c>
       <c r="L212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M212">
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A213" s="7">
+      <c r="A213" s="6">
         <v>44751</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -9270,14 +9264,14 @@
         <v>2</v>
       </c>
       <c r="L213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M213">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A214" s="7">
+      <c r="A214" s="6">
         <v>44751</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -9311,14 +9305,14 @@
         <v>1</v>
       </c>
       <c r="L214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M214">
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A215" s="7">
+      <c r="A215" s="6">
         <v>44751</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -9352,14 +9346,14 @@
         <v>1</v>
       </c>
       <c r="L215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M215">
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A216" s="7">
+      <c r="A216" s="6">
         <v>44752</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -9393,14 +9387,14 @@
         <v>1</v>
       </c>
       <c r="L216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M216">
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A217" s="7">
+      <c r="A217" s="6">
         <v>44752</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -9434,14 +9428,14 @@
         <v>2</v>
       </c>
       <c r="L217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M217">
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A218" s="7">
+      <c r="A218" s="6">
         <v>44754</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -9475,14 +9469,14 @@
         <v>2</v>
       </c>
       <c r="L218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M218">
         <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A219" s="7">
+      <c r="A219" s="6">
         <v>44754</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -9516,14 +9510,14 @@
         <v>1</v>
       </c>
       <c r="L219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M219">
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A220" s="7">
+      <c r="A220" s="6">
         <v>44754</v>
       </c>
       <c r="B220" s="2" t="s">
@@ -9557,14 +9551,14 @@
         <v>1</v>
       </c>
       <c r="L220" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M220">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A221" s="7">
+      <c r="A221" s="6">
         <v>44754</v>
       </c>
       <c r="B221" s="2" t="s">
@@ -9598,14 +9592,14 @@
         <v>2</v>
       </c>
       <c r="L221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M221">
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A222" s="7">
+      <c r="A222" s="6">
         <v>44756</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -9639,14 +9633,14 @@
         <v>1</v>
       </c>
       <c r="L222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M222">
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A223" s="7">
+      <c r="A223" s="6">
         <v>44760</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -9680,14 +9674,14 @@
         <v>1</v>
       </c>
       <c r="L223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M223">
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A224" s="7">
+      <c r="A224" s="6">
         <v>44760</v>
       </c>
       <c r="B224" s="2" t="s">
@@ -9721,14 +9715,14 @@
         <v>2</v>
       </c>
       <c r="L224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M224">
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A225" s="7">
+      <c r="A225" s="6">
         <v>44760</v>
       </c>
       <c r="B225" s="2" t="s">
@@ -9762,14 +9756,14 @@
         <v>1</v>
       </c>
       <c r="L225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M225">
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A226" s="7">
+      <c r="A226" s="6">
         <v>44760</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -9803,14 +9797,14 @@
         <v>2</v>
       </c>
       <c r="L226" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M226">
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A227" s="7">
+      <c r="A227" s="6">
         <v>44761</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -9844,14 +9838,14 @@
         <v>1</v>
       </c>
       <c r="L227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M227">
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A228" s="7">
+      <c r="A228" s="6">
         <v>44761</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -9885,14 +9879,14 @@
         <v>3</v>
       </c>
       <c r="L228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M228">
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A229" s="7">
+      <c r="A229" s="6">
         <v>44762</v>
       </c>
       <c r="B229" s="2" t="s">
@@ -9926,14 +9920,14 @@
         <v>2</v>
       </c>
       <c r="L229" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M229">
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A230" s="7">
+      <c r="A230" s="6">
         <v>44762</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -9967,14 +9961,14 @@
         <v>1</v>
       </c>
       <c r="L230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M230">
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A231" s="7">
+      <c r="A231" s="6">
         <v>44763</v>
       </c>
       <c r="B231" s="2" t="s">
@@ -10008,14 +10002,14 @@
         <v>1</v>
       </c>
       <c r="L231" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M231">
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A232" s="7">
+      <c r="A232" s="6">
         <v>44765</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -10049,14 +10043,14 @@
         <v>1</v>
       </c>
       <c r="L232" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M232">
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A233" s="7">
+      <c r="A233" s="6">
         <v>44766</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -10090,14 +10084,14 @@
         <v>1</v>
       </c>
       <c r="L233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M233">
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A234" s="7">
+      <c r="A234" s="6">
         <v>44767</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -10131,14 +10125,14 @@
         <v>1</v>
       </c>
       <c r="L234" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M234">
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A235" s="7">
+      <c r="A235" s="6">
         <v>44767</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -10172,14 +10166,14 @@
         <v>2</v>
       </c>
       <c r="L235" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M235">
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A236" s="7">
+      <c r="A236" s="6">
         <v>44768</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -10213,14 +10207,14 @@
         <v>3</v>
       </c>
       <c r="L236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M236">
         <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A237" s="7">
+      <c r="A237" s="6">
         <v>44768</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -10254,14 +10248,14 @@
         <v>2</v>
       </c>
       <c r="L237" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M237">
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A238" s="7">
+      <c r="A238" s="6">
         <v>44768</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -10295,14 +10289,14 @@
         <v>3</v>
       </c>
       <c r="L238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M238">
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A239" s="7">
+      <c r="A239" s="6">
         <v>44769</v>
       </c>
       <c r="B239" s="2" t="s">
@@ -10336,14 +10330,14 @@
         <v>1</v>
       </c>
       <c r="L239" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M239">
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A240" s="7">
+      <c r="A240" s="6">
         <v>44771</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -10377,14 +10371,14 @@
         <v>1</v>
       </c>
       <c r="L240" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M240">
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A241" s="7">
+      <c r="A241" s="6">
         <v>44772</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -10418,14 +10412,14 @@
         <v>1</v>
       </c>
       <c r="L241" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M241">
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A242" s="7">
+      <c r="A242" s="6">
         <v>44772</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -10459,14 +10453,14 @@
         <v>1</v>
       </c>
       <c r="L242" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M242">
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A243" s="7">
+      <c r="A243" s="6">
         <v>44773</v>
       </c>
       <c r="B243" s="2" t="s">
@@ -10500,14 +10494,14 @@
         <v>2</v>
       </c>
       <c r="L243" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M243">
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A244" s="7">
+      <c r="A244" s="6">
         <v>44774</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -10541,14 +10535,14 @@
         <v>3</v>
       </c>
       <c r="L244" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M244">
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A245" s="7">
+      <c r="A245" s="6">
         <v>44774</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -10582,14 +10576,14 @@
         <v>3</v>
       </c>
       <c r="L245" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M245">
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A246" s="7">
+      <c r="A246" s="6">
         <v>44775</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -10623,14 +10617,14 @@
         <v>2</v>
       </c>
       <c r="L246" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M246">
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A247" s="7">
+      <c r="A247" s="6">
         <v>44775</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -10664,14 +10658,14 @@
         <v>1</v>
       </c>
       <c r="L247" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M247">
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A248" s="7">
+      <c r="A248" s="6">
         <v>44775</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -10705,14 +10699,14 @@
         <v>2</v>
       </c>
       <c r="L248" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M248">
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A249" s="7">
+      <c r="A249" s="6">
         <v>44776</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -10746,14 +10740,14 @@
         <v>1</v>
       </c>
       <c r="L249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M249">
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A250" s="7">
+      <c r="A250" s="6">
         <v>44779</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -10787,14 +10781,14 @@
         <v>1</v>
       </c>
       <c r="L250" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M250">
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A251" s="7">
+      <c r="A251" s="6">
         <v>44779</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -10828,14 +10822,14 @@
         <v>1</v>
       </c>
       <c r="L251" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M251">
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A252" s="7">
+      <c r="A252" s="6">
         <v>44781</v>
       </c>
       <c r="B252" s="2" t="s">
@@ -10869,14 +10863,14 @@
         <v>3</v>
       </c>
       <c r="L252" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M252">
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A253" s="7">
+      <c r="A253" s="6">
         <v>44781</v>
       </c>
       <c r="B253" s="2" t="s">
@@ -10910,14 +10904,14 @@
         <v>1</v>
       </c>
       <c r="L253" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M253">
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A254" s="7">
+      <c r="A254" s="6">
         <v>44782</v>
       </c>
       <c r="B254" s="2" t="s">
@@ -10951,14 +10945,14 @@
         <v>1</v>
       </c>
       <c r="L254" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M254">
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A255" s="7">
+      <c r="A255" s="6">
         <v>44784</v>
       </c>
       <c r="B255" s="2" t="s">
@@ -10992,14 +10986,14 @@
         <v>1</v>
       </c>
       <c r="L255" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M255">
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A256" s="7">
+      <c r="A256" s="6">
         <v>44785</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -11033,14 +11027,14 @@
         <v>1</v>
       </c>
       <c r="L256" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M256">
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A257" s="7">
+      <c r="A257" s="6">
         <v>44787</v>
       </c>
       <c r="B257" s="2" t="s">
@@ -11074,14 +11068,14 @@
         <v>2</v>
       </c>
       <c r="L257" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M257">
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A258" s="7">
+      <c r="A258" s="6">
         <v>44787</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -11115,14 +11109,14 @@
         <v>2</v>
       </c>
       <c r="L258" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M258">
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A259" s="7">
+      <c r="A259" s="6">
         <v>44788</v>
       </c>
       <c r="B259" s="2" t="s">
@@ -11156,14 +11150,14 @@
         <v>1</v>
       </c>
       <c r="L259" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M259">
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A260" s="7">
+      <c r="A260" s="6">
         <v>44789</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -11197,14 +11191,14 @@
         <v>1</v>
       </c>
       <c r="L260" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M260">
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A261" s="7">
+      <c r="A261" s="6">
         <v>44790</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -11238,14 +11232,14 @@
         <v>3</v>
       </c>
       <c r="L261" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M261">
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A262" s="7">
+      <c r="A262" s="6">
         <v>44790</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -11279,14 +11273,14 @@
         <v>1</v>
       </c>
       <c r="L262" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M262">
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A263" s="7">
+      <c r="A263" s="6">
         <v>44790</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -11320,14 +11314,14 @@
         <v>1</v>
       </c>
       <c r="L263" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M263">
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A264" s="7">
+      <c r="A264" s="6">
         <v>44791</v>
       </c>
       <c r="B264" s="2" t="s">
@@ -11361,14 +11355,14 @@
         <v>1</v>
       </c>
       <c r="L264" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M264">
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A265" s="7">
+      <c r="A265" s="6">
         <v>44791</v>
       </c>
       <c r="B265" s="2" t="s">
@@ -11402,14 +11396,14 @@
         <v>1</v>
       </c>
       <c r="L265" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M265">
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A266" s="7">
+      <c r="A266" s="6">
         <v>44791</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -11443,14 +11437,14 @@
         <v>1</v>
       </c>
       <c r="L266" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M266">
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A267" s="7">
+      <c r="A267" s="6">
         <v>44794</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -11484,14 +11478,14 @@
         <v>2</v>
       </c>
       <c r="L267" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M267">
         <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A268" s="7">
+      <c r="A268" s="6">
         <v>44794</v>
       </c>
       <c r="B268" s="2" t="s">
@@ -11525,14 +11519,14 @@
         <v>1</v>
       </c>
       <c r="L268" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M268">
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A269" s="7">
+      <c r="A269" s="6">
         <v>44794</v>
       </c>
       <c r="B269" s="2" t="s">
@@ -11566,14 +11560,14 @@
         <v>1</v>
       </c>
       <c r="L269" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M269">
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A270" s="7">
+      <c r="A270" s="6">
         <v>44794</v>
       </c>
       <c r="B270" s="2" t="s">
@@ -11607,14 +11601,14 @@
         <v>1</v>
       </c>
       <c r="L270" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M270">
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A271" s="7">
+      <c r="A271" s="6">
         <v>44795</v>
       </c>
       <c r="B271" s="2" t="s">
@@ -11648,14 +11642,14 @@
         <v>3</v>
       </c>
       <c r="L271" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M271">
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A272" s="7">
+      <c r="A272" s="6">
         <v>44795</v>
       </c>
       <c r="B272" s="2" t="s">
@@ -11689,14 +11683,14 @@
         <v>1</v>
       </c>
       <c r="L272" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M272">
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A273" s="7">
+      <c r="A273" s="6">
         <v>44796</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -11730,14 +11724,14 @@
         <v>2</v>
       </c>
       <c r="L273" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M273">
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A274" s="7">
+      <c r="A274" s="6">
         <v>44796</v>
       </c>
       <c r="B274" s="2" t="s">
@@ -11771,14 +11765,14 @@
         <v>2</v>
       </c>
       <c r="L274" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M274">
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A275" s="7">
+      <c r="A275" s="6">
         <v>44797</v>
       </c>
       <c r="B275" s="2" t="s">
@@ -11812,14 +11806,14 @@
         <v>1</v>
       </c>
       <c r="L275" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M275">
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A276" s="7">
+      <c r="A276" s="6">
         <v>44797</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -11853,14 +11847,14 @@
         <v>1</v>
       </c>
       <c r="L276" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M276">
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A277" s="7">
+      <c r="A277" s="6">
         <v>44797</v>
       </c>
       <c r="B277" s="2" t="s">
@@ -11894,14 +11888,14 @@
         <v>1</v>
       </c>
       <c r="L277" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M277">
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A278" s="7">
+      <c r="A278" s="6">
         <v>44800</v>
       </c>
       <c r="B278" s="2" t="s">
@@ -11935,14 +11929,14 @@
         <v>3</v>
       </c>
       <c r="L278" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M278">
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A279" s="7">
+      <c r="A279" s="6">
         <v>44800</v>
       </c>
       <c r="B279" s="2" t="s">
@@ -11976,14 +11970,14 @@
         <v>1</v>
       </c>
       <c r="L279" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M279">
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A280" s="7">
+      <c r="A280" s="6">
         <v>44801</v>
       </c>
       <c r="B280" s="2" t="s">
@@ -12017,14 +12011,14 @@
         <v>1</v>
       </c>
       <c r="L280" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M280">
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A281" s="7">
+      <c r="A281" s="6">
         <v>44801</v>
       </c>
       <c r="B281" s="2" t="s">
@@ -12058,14 +12052,14 @@
         <v>1</v>
       </c>
       <c r="L281" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M281">
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A282" s="7">
+      <c r="A282" s="6">
         <v>44803</v>
       </c>
       <c r="B282" s="2" t="s">
@@ -12099,14 +12093,14 @@
         <v>2</v>
       </c>
       <c r="L282" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M282">
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A283" s="7">
+      <c r="A283" s="6">
         <v>44805</v>
       </c>
       <c r="B283" s="2" t="s">
@@ -12140,14 +12134,14 @@
         <v>2</v>
       </c>
       <c r="L283" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M283">
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A284" s="7">
+      <c r="A284" s="6">
         <v>44805</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -12181,14 +12175,14 @@
         <v>2</v>
       </c>
       <c r="L284" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M284">
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A285" s="7">
+      <c r="A285" s="6">
         <v>44806</v>
       </c>
       <c r="B285" s="2" t="s">
@@ -12222,14 +12216,14 @@
         <v>2</v>
       </c>
       <c r="L285" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M285">
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A286" s="7">
+      <c r="A286" s="6">
         <v>44807</v>
       </c>
       <c r="B286" s="2" t="s">
@@ -12263,14 +12257,14 @@
         <v>1</v>
       </c>
       <c r="L286" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M286">
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A287" s="7">
+      <c r="A287" s="6">
         <v>44807</v>
       </c>
       <c r="B287" s="2" t="s">
@@ -12304,14 +12298,14 @@
         <v>1</v>
       </c>
       <c r="L287" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M287">
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A288" s="7">
+      <c r="A288" s="6">
         <v>44812</v>
       </c>
       <c r="B288" s="2" t="s">
@@ -12345,14 +12339,14 @@
         <v>3</v>
       </c>
       <c r="L288" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M288">
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A289" s="7">
+      <c r="A289" s="6">
         <v>44814</v>
       </c>
       <c r="B289" s="2" t="s">
@@ -12386,14 +12380,14 @@
         <v>1</v>
       </c>
       <c r="L289" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M289">
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A290" s="7">
+      <c r="A290" s="6">
         <v>44814</v>
       </c>
       <c r="B290" s="2" t="s">
@@ -12427,14 +12421,14 @@
         <v>1</v>
       </c>
       <c r="L290" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M290">
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A291" s="7">
+      <c r="A291" s="6">
         <v>44814</v>
       </c>
       <c r="B291" s="2" t="s">
@@ -12468,14 +12462,14 @@
         <v>1</v>
       </c>
       <c r="L291" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M291">
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A292" s="7">
+      <c r="A292" s="6">
         <v>44816</v>
       </c>
       <c r="B292" s="2" t="s">
@@ -12509,14 +12503,14 @@
         <v>1</v>
       </c>
       <c r="L292" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M292">
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A293" s="7">
+      <c r="A293" s="6">
         <v>44816</v>
       </c>
       <c r="B293" s="2" t="s">
@@ -12550,14 +12544,14 @@
         <v>1</v>
       </c>
       <c r="L293" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M293">
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A294" s="7">
+      <c r="A294" s="6">
         <v>44816</v>
       </c>
       <c r="B294" s="2" t="s">
@@ -12591,14 +12585,14 @@
         <v>1</v>
       </c>
       <c r="L294" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M294">
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A295" s="7">
+      <c r="A295" s="6">
         <v>44816</v>
       </c>
       <c r="B295" s="2" t="s">
@@ -12632,14 +12626,14 @@
         <v>1</v>
       </c>
       <c r="L295" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M295">
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A296" s="7">
+      <c r="A296" s="6">
         <v>44816</v>
       </c>
       <c r="B296" s="2" t="s">
@@ -12673,14 +12667,14 @@
         <v>1</v>
       </c>
       <c r="L296" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M296">
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A297" s="7">
+      <c r="A297" s="6">
         <v>44817</v>
       </c>
       <c r="B297" s="2" t="s">
@@ -12714,14 +12708,14 @@
         <v>1</v>
       </c>
       <c r="L297" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M297">
         <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A298" s="7">
+      <c r="A298" s="6">
         <v>44817</v>
       </c>
       <c r="B298" s="2" t="s">
@@ -12755,14 +12749,14 @@
         <v>1</v>
       </c>
       <c r="L298" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M298">
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A299" s="7">
+      <c r="A299" s="6">
         <v>44818</v>
       </c>
       <c r="B299" s="2" t="s">
@@ -12796,14 +12790,14 @@
         <v>1</v>
       </c>
       <c r="L299" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M299">
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A300" s="7">
+      <c r="A300" s="6">
         <v>44818</v>
       </c>
       <c r="B300" s="2" t="s">
@@ -12837,14 +12831,14 @@
         <v>1</v>
       </c>
       <c r="L300" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M300">
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A301" s="7">
+      <c r="A301" s="6">
         <v>44820</v>
       </c>
       <c r="B301" s="2" t="s">
@@ -12878,14 +12872,14 @@
         <v>1</v>
       </c>
       <c r="L301" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M301">
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A302" s="7">
+      <c r="A302" s="6">
         <v>44821</v>
       </c>
       <c r="B302" s="2" t="s">
@@ -12919,14 +12913,14 @@
         <v>2</v>
       </c>
       <c r="L302" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M302">
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A303" s="7">
+      <c r="A303" s="6">
         <v>44821</v>
       </c>
       <c r="B303" s="2" t="s">
@@ -12960,14 +12954,14 @@
         <v>2</v>
       </c>
       <c r="L303" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M303">
         <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A304" s="7">
+      <c r="A304" s="6">
         <v>44822</v>
       </c>
       <c r="B304" s="2" t="s">
@@ -13001,14 +12995,14 @@
         <v>2</v>
       </c>
       <c r="L304" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M304">
         <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A305" s="7">
+      <c r="A305" s="6">
         <v>44825</v>
       </c>
       <c r="B305" s="2" t="s">
@@ -13042,14 +13036,14 @@
         <v>1</v>
       </c>
       <c r="L305" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M305">
         <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A306" s="7">
+      <c r="A306" s="6">
         <v>44825</v>
       </c>
       <c r="B306" s="2" t="s">
@@ -13083,14 +13077,14 @@
         <v>1</v>
       </c>
       <c r="L306" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M306">
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A307" s="7">
+      <c r="A307" s="6">
         <v>44826</v>
       </c>
       <c r="B307" s="2" t="s">
@@ -13124,14 +13118,14 @@
         <v>1</v>
       </c>
       <c r="L307" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M307">
         <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A308" s="7">
+      <c r="A308" s="6">
         <v>44826</v>
       </c>
       <c r="B308" s="2" t="s">
@@ -13165,14 +13159,14 @@
         <v>1</v>
       </c>
       <c r="L308" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M308">
         <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A309" s="7">
+      <c r="A309" s="6">
         <v>44827</v>
       </c>
       <c r="B309" s="2" t="s">
@@ -13206,14 +13200,14 @@
         <v>1</v>
       </c>
       <c r="L309" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M309">
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A310" s="7">
+      <c r="A310" s="6">
         <v>44828</v>
       </c>
       <c r="B310" s="2" t="s">
@@ -13247,14 +13241,14 @@
         <v>1</v>
       </c>
       <c r="L310" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M310">
         <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A311" s="7">
+      <c r="A311" s="6">
         <v>44833</v>
       </c>
       <c r="B311" s="2" t="s">
@@ -13288,14 +13282,14 @@
         <v>1</v>
       </c>
       <c r="L311" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M311">
         <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A312" s="7">
+      <c r="A312" s="6">
         <v>44836</v>
       </c>
       <c r="B312" s="2" t="s">
@@ -13329,14 +13323,14 @@
         <v>1</v>
       </c>
       <c r="L312" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M312">
         <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A313" s="7">
+      <c r="A313" s="6">
         <v>44837</v>
       </c>
       <c r="B313" s="2" t="s">
@@ -13370,14 +13364,14 @@
         <v>1</v>
       </c>
       <c r="L313" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M313">
         <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A314" s="7">
+      <c r="A314" s="6">
         <v>44838</v>
       </c>
       <c r="B314" s="2" t="s">
@@ -13411,14 +13405,14 @@
         <v>1</v>
       </c>
       <c r="L314" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M314">
         <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A315" s="7">
+      <c r="A315" s="6">
         <v>44839</v>
       </c>
       <c r="B315" s="2" t="s">
@@ -13452,14 +13446,14 @@
         <v>1</v>
       </c>
       <c r="L315" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M315">
         <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A316" s="7">
+      <c r="A316" s="6">
         <v>44839</v>
       </c>
       <c r="B316" s="2" t="s">
@@ -13493,14 +13487,14 @@
         <v>1</v>
       </c>
       <c r="L316" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M316">
         <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A317" s="7">
+      <c r="A317" s="6">
         <v>44839</v>
       </c>
       <c r="B317" s="2" t="s">
@@ -13534,14 +13528,14 @@
         <v>2</v>
       </c>
       <c r="L317" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M317">
         <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A318" s="7">
+      <c r="A318" s="6">
         <v>44841</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -13575,14 +13569,14 @@
         <v>1</v>
       </c>
       <c r="L318" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M318">
         <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A319" s="7">
+      <c r="A319" s="6">
         <v>44842</v>
       </c>
       <c r="B319" s="2" t="s">
@@ -13616,14 +13610,14 @@
         <v>1</v>
       </c>
       <c r="L319" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M319">
         <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A320" s="7">
+      <c r="A320" s="6">
         <v>44843</v>
       </c>
       <c r="B320" s="2" t="s">
@@ -13657,14 +13651,14 @@
         <v>1</v>
       </c>
       <c r="L320" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M320">
         <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A321" s="7">
+      <c r="A321" s="6">
         <v>44843</v>
       </c>
       <c r="B321" s="2" t="s">
@@ -13698,14 +13692,14 @@
         <v>1</v>
       </c>
       <c r="L321" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M321">
         <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A322" s="7">
+      <c r="A322" s="6">
         <v>44843</v>
       </c>
       <c r="B322" s="2" t="s">
@@ -13739,14 +13733,14 @@
         <v>1</v>
       </c>
       <c r="L322" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M322">
         <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A323" s="7">
+      <c r="A323" s="6">
         <v>44844</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -13780,14 +13774,14 @@
         <v>1</v>
       </c>
       <c r="L323" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M323">
         <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A324" s="7">
+      <c r="A324" s="6">
         <v>44845</v>
       </c>
       <c r="B324" s="2" t="s">
@@ -13821,14 +13815,14 @@
         <v>1</v>
       </c>
       <c r="L324" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M324">
         <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A325" s="7">
+      <c r="A325" s="6">
         <v>44845</v>
       </c>
       <c r="B325" s="2" t="s">
@@ -13862,14 +13856,14 @@
         <v>3</v>
       </c>
       <c r="L325" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M325">
         <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A326" s="7">
+      <c r="A326" s="6">
         <v>44845</v>
       </c>
       <c r="B326" s="2" t="s">
@@ -13903,14 +13897,14 @@
         <v>2</v>
       </c>
       <c r="L326" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M326">
         <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A327" s="7">
+      <c r="A327" s="6">
         <v>44846</v>
       </c>
       <c r="B327" s="2" t="s">
@@ -13944,29 +13938,29 @@
         <v>3</v>
       </c>
       <c r="L327" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M327">
         <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A328" s="7">
+      <c r="A328" s="6">
         <v>44846</v>
       </c>
-      <c r="B328" s="6" t="s">
+      <c r="B328" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C328" s="6" t="s">
+      <c r="C328" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D328" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E328" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F328" s="6">
+      <c r="D328" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F328" s="5">
         <v>2</v>
       </c>
       <c r="G328" t="s">
@@ -13985,14 +13979,14 @@
         <v>2</v>
       </c>
       <c r="L328" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M328">
         <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A329" s="7">
+      <c r="A329" s="6">
         <v>44847</v>
       </c>
       <c r="B329" s="2" t="s">
@@ -14026,14 +14020,14 @@
         <v>1</v>
       </c>
       <c r="L329" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M329">
         <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A330" s="7">
+      <c r="A330" s="6">
         <v>44847</v>
       </c>
       <c r="B330" s="2" t="s">
@@ -14067,14 +14061,14 @@
         <v>1</v>
       </c>
       <c r="L330" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M330">
         <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A331" s="7">
+      <c r="A331" s="6">
         <v>44850</v>
       </c>
       <c r="B331" s="2" t="s">
@@ -14108,14 +14102,14 @@
         <v>3</v>
       </c>
       <c r="L331" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M331">
         <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A332" s="7">
+      <c r="A332" s="6">
         <v>44855</v>
       </c>
       <c r="B332" s="2" t="s">
@@ -14149,14 +14143,14 @@
         <v>1</v>
       </c>
       <c r="L332" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M332">
         <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A333" s="7">
+      <c r="A333" s="6">
         <v>44855</v>
       </c>
       <c r="B333" s="2" t="s">
@@ -14190,14 +14184,14 @@
         <v>1</v>
       </c>
       <c r="L333" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M333">
         <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A334" s="7">
+      <c r="A334" s="6">
         <v>44860</v>
       </c>
       <c r="B334" s="2" t="s">
@@ -14231,14 +14225,14 @@
         <v>1</v>
       </c>
       <c r="L334" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M334">
         <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A335" s="7">
+      <c r="A335" s="6">
         <v>44860</v>
       </c>
       <c r="B335" s="2" t="s">
@@ -14272,14 +14266,14 @@
         <v>1</v>
       </c>
       <c r="L335" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M335">
         <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A336" s="7">
+      <c r="A336" s="6">
         <v>44861</v>
       </c>
       <c r="B336" s="2" t="s">
@@ -14313,14 +14307,14 @@
         <v>1</v>
       </c>
       <c r="L336" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M336">
         <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A337" s="7">
+      <c r="A337" s="6">
         <v>44861</v>
       </c>
       <c r="B337" s="2" t="s">
@@ -14354,14 +14348,14 @@
         <v>1</v>
       </c>
       <c r="L337" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M337">
         <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A338" s="7">
+      <c r="A338" s="6">
         <v>44861</v>
       </c>
       <c r="B338" s="2" t="s">
@@ -14395,14 +14389,14 @@
         <v>2</v>
       </c>
       <c r="L338" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M338">
         <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A339" s="7">
+      <c r="A339" s="6">
         <v>44862</v>
       </c>
       <c r="B339" s="2" t="s">
@@ -14436,14 +14430,14 @@
         <v>1</v>
       </c>
       <c r="L339" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M339">
         <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A340" s="7">
+      <c r="A340" s="6">
         <v>44862</v>
       </c>
       <c r="B340" s="2" t="s">
@@ -14477,14 +14471,14 @@
         <v>1</v>
       </c>
       <c r="L340" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M340">
         <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A341" s="7">
+      <c r="A341" s="6">
         <v>44863</v>
       </c>
       <c r="B341" s="2" t="s">
@@ -14518,14 +14512,14 @@
         <v>1</v>
       </c>
       <c r="L341" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M341">
         <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A342" s="7">
+      <c r="A342" s="6">
         <v>44865</v>
       </c>
       <c r="B342" s="2" t="s">
@@ -14559,14 +14553,14 @@
         <v>2</v>
       </c>
       <c r="L342" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M342">
         <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A343" s="7">
+      <c r="A343" s="6">
         <v>44867</v>
       </c>
       <c r="B343" s="2" t="s">
@@ -14600,14 +14594,14 @@
         <v>3</v>
       </c>
       <c r="L343" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M343">
         <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A344" s="7">
+      <c r="A344" s="6">
         <v>44868</v>
       </c>
       <c r="B344" s="2" t="s">
@@ -14641,14 +14635,14 @@
         <v>2</v>
       </c>
       <c r="L344" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M344">
         <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A345" s="7">
+      <c r="A345" s="6">
         <v>44871</v>
       </c>
       <c r="B345" s="2" t="s">
@@ -14682,14 +14676,14 @@
         <v>3</v>
       </c>
       <c r="L345" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M345">
         <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A346" s="7">
+      <c r="A346" s="6">
         <v>44871</v>
       </c>
       <c r="B346" s="2" t="s">
@@ -14723,14 +14717,14 @@
         <v>1</v>
       </c>
       <c r="L346" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M346">
         <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A347" s="7">
+      <c r="A347" s="6">
         <v>44875</v>
       </c>
       <c r="B347" s="2" t="s">
@@ -14764,14 +14758,14 @@
         <v>1</v>
       </c>
       <c r="L347" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M347">
         <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A348" s="7">
+      <c r="A348" s="6">
         <v>44875</v>
       </c>
       <c r="B348" s="2" t="s">
@@ -14805,14 +14799,14 @@
         <v>2</v>
       </c>
       <c r="L348" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M348">
         <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A349" s="7">
+      <c r="A349" s="6">
         <v>44877</v>
       </c>
       <c r="B349" s="2" t="s">
@@ -14846,14 +14840,14 @@
         <v>2</v>
       </c>
       <c r="L349" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M349">
         <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A350" s="7">
+      <c r="A350" s="6">
         <v>44878</v>
       </c>
       <c r="B350" s="2" t="s">
@@ -14887,14 +14881,14 @@
         <v>1</v>
       </c>
       <c r="L350" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M350">
         <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A351" s="7">
+      <c r="A351" s="6">
         <v>44879</v>
       </c>
       <c r="B351" s="2" t="s">
@@ -14928,14 +14922,14 @@
         <v>3</v>
       </c>
       <c r="L351" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M351">
         <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A352" s="7">
+      <c r="A352" s="6">
         <v>44879</v>
       </c>
       <c r="B352" s="2" t="s">
@@ -14969,14 +14963,14 @@
         <v>2</v>
       </c>
       <c r="L352" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M352">
         <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A353" s="7">
+      <c r="A353" s="6">
         <v>44880</v>
       </c>
       <c r="B353" s="2" t="s">
@@ -15010,14 +15004,14 @@
         <v>1</v>
       </c>
       <c r="L353" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M353">
         <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A354" s="7">
+      <c r="A354" s="6">
         <v>44880</v>
       </c>
       <c r="B354" s="2" t="s">
@@ -15051,14 +15045,14 @@
         <v>1</v>
       </c>
       <c r="L354" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M354">
         <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A355" s="7">
+      <c r="A355" s="6">
         <v>44880</v>
       </c>
       <c r="B355" s="2" t="s">
@@ -15092,14 +15086,14 @@
         <v>2</v>
       </c>
       <c r="L355" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M355">
         <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A356" s="7">
+      <c r="A356" s="6">
         <v>44882</v>
       </c>
       <c r="B356" s="2" t="s">
@@ -15133,14 +15127,14 @@
         <v>3</v>
       </c>
       <c r="L356" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M356">
         <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A357" s="7">
+      <c r="A357" s="6">
         <v>44883</v>
       </c>
       <c r="B357" s="2" t="s">
@@ -15174,14 +15168,14 @@
         <v>1</v>
       </c>
       <c r="L357" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M357">
         <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A358" s="7">
+      <c r="A358" s="6">
         <v>44884</v>
       </c>
       <c r="B358" s="2" t="s">
@@ -15215,14 +15209,14 @@
         <v>2</v>
       </c>
       <c r="L358" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M358">
         <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A359" s="7">
+      <c r="A359" s="6">
         <v>44885</v>
       </c>
       <c r="B359" s="2" t="s">
@@ -15256,14 +15250,14 @@
         <v>1</v>
       </c>
       <c r="L359" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M359">
         <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A360" s="7">
+      <c r="A360" s="6">
         <v>44885</v>
       </c>
       <c r="B360" s="2" t="s">
@@ -15297,14 +15291,14 @@
         <v>1</v>
       </c>
       <c r="L360" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M360">
         <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A361" s="7">
+      <c r="A361" s="6">
         <v>44886</v>
       </c>
       <c r="B361" s="2" t="s">
@@ -15338,14 +15332,14 @@
         <v>1</v>
       </c>
       <c r="L361" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M361">
         <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A362" s="7">
+      <c r="A362" s="6">
         <v>44886</v>
       </c>
       <c r="B362" s="2" t="s">
@@ -15379,14 +15373,14 @@
         <v>3</v>
       </c>
       <c r="L362" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M362">
         <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A363" s="7">
+      <c r="A363" s="6">
         <v>44886</v>
       </c>
       <c r="B363" s="2" t="s">
@@ -15420,14 +15414,14 @@
         <v>1</v>
       </c>
       <c r="L363" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M363">
         <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A364" s="7">
+      <c r="A364" s="6">
         <v>44888</v>
       </c>
       <c r="B364" s="2" t="s">
@@ -15461,14 +15455,14 @@
         <v>1</v>
       </c>
       <c r="L364" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M364">
         <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A365" s="7">
+      <c r="A365" s="6">
         <v>44888</v>
       </c>
       <c r="B365" s="2" t="s">
@@ -15502,14 +15496,14 @@
         <v>1</v>
       </c>
       <c r="L365" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M365">
         <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A366" s="7">
+      <c r="A366" s="6">
         <v>44891</v>
       </c>
       <c r="B366" s="2" t="s">
@@ -15543,14 +15537,14 @@
         <v>1</v>
       </c>
       <c r="L366" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M366">
         <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A367" s="7">
+      <c r="A367" s="6">
         <v>44892</v>
       </c>
       <c r="B367" s="2" t="s">
@@ -15584,14 +15578,14 @@
         <v>1</v>
       </c>
       <c r="L367" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M367">
         <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A368" s="7">
+      <c r="A368" s="6">
         <v>44892</v>
       </c>
       <c r="B368" s="2" t="s">
@@ -15625,14 +15619,14 @@
         <v>3</v>
       </c>
       <c r="L368" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M368">
         <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A369" s="7">
+      <c r="A369" s="6">
         <v>44894</v>
       </c>
       <c r="B369" s="2" t="s">
@@ -15666,14 +15660,14 @@
         <v>2</v>
       </c>
       <c r="L369" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M369">
         <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A370" s="7">
+      <c r="A370" s="6">
         <v>44894</v>
       </c>
       <c r="B370" s="2" t="s">
@@ -15707,14 +15701,14 @@
         <v>1</v>
       </c>
       <c r="L370" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M370">
         <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A371" s="7">
+      <c r="A371" s="6">
         <v>44894</v>
       </c>
       <c r="B371" s="2" t="s">
@@ -15748,14 +15742,14 @@
         <v>2</v>
       </c>
       <c r="L371" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M371">
         <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A372" s="7">
+      <c r="A372" s="6">
         <v>44894</v>
       </c>
       <c r="B372" s="2" t="s">
@@ -15789,14 +15783,14 @@
         <v>1</v>
       </c>
       <c r="L372" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M372">
         <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A373" s="7">
+      <c r="A373" s="6">
         <v>44896</v>
       </c>
       <c r="B373" s="2" t="s">
@@ -15830,14 +15824,14 @@
         <v>2</v>
       </c>
       <c r="L373" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M373">
         <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A374" s="7">
+      <c r="A374" s="6">
         <v>44896</v>
       </c>
       <c r="B374" s="2" t="s">
@@ -15871,14 +15865,14 @@
         <v>1</v>
       </c>
       <c r="L374" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M374">
         <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A375" s="7">
+      <c r="A375" s="6">
         <v>44897</v>
       </c>
       <c r="B375" s="2" t="s">
@@ -15912,14 +15906,14 @@
         <v>1</v>
       </c>
       <c r="L375" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M375">
         <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A376" s="7">
+      <c r="A376" s="6">
         <v>44899</v>
       </c>
       <c r="B376" s="2" t="s">
@@ -15953,14 +15947,14 @@
         <v>1</v>
       </c>
       <c r="L376" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M376">
         <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A377" s="7">
+      <c r="A377" s="6">
         <v>44899</v>
       </c>
       <c r="B377" s="2" t="s">
@@ -15994,14 +15988,14 @@
         <v>2</v>
       </c>
       <c r="L377" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M377">
         <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A378" s="7">
+      <c r="A378" s="6">
         <v>44901</v>
       </c>
       <c r="B378" s="2" t="s">
@@ -16035,14 +16029,14 @@
         <v>3</v>
       </c>
       <c r="L378" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M378">
         <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A379" s="7">
+      <c r="A379" s="6">
         <v>44902</v>
       </c>
       <c r="B379" s="2" t="s">
@@ -16076,14 +16070,14 @@
         <v>1</v>
       </c>
       <c r="L379" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M379">
         <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A380" s="7">
+      <c r="A380" s="6">
         <v>44902</v>
       </c>
       <c r="B380" s="2" t="s">
@@ -16117,14 +16111,14 @@
         <v>1</v>
       </c>
       <c r="L380" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M380">
         <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A381" s="7">
+      <c r="A381" s="6">
         <v>44903</v>
       </c>
       <c r="B381" s="2" t="s">
@@ -16158,14 +16152,14 @@
         <v>1</v>
       </c>
       <c r="L381" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M381">
         <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A382" s="7">
+      <c r="A382" s="6">
         <v>44903</v>
       </c>
       <c r="B382" s="2" t="s">
@@ -16199,14 +16193,14 @@
         <v>2</v>
       </c>
       <c r="L382" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M382">
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A383" s="7">
+      <c r="A383" s="6">
         <v>44905</v>
       </c>
       <c r="B383" s="2" t="s">
@@ -16240,14 +16234,14 @@
         <v>2</v>
       </c>
       <c r="L383" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M383">
         <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A384" s="7">
+      <c r="A384" s="6">
         <v>44905</v>
       </c>
       <c r="B384" s="2" t="s">
@@ -16281,14 +16275,14 @@
         <v>1</v>
       </c>
       <c r="L384" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M384">
         <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A385" s="7">
+      <c r="A385" s="6">
         <v>44908</v>
       </c>
       <c r="B385" s="2" t="s">
@@ -16322,14 +16316,14 @@
         <v>1</v>
       </c>
       <c r="L385" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M385">
         <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A386" s="7">
+      <c r="A386" s="6">
         <v>44908</v>
       </c>
       <c r="B386" s="2" t="s">
@@ -16363,14 +16357,14 @@
         <v>1</v>
       </c>
       <c r="L386" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M386">
         <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A387" s="7">
+      <c r="A387" s="6">
         <v>44908</v>
       </c>
       <c r="B387" s="2" t="s">
@@ -16404,14 +16398,14 @@
         <v>2</v>
       </c>
       <c r="L387" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M387">
         <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A388" s="7">
+      <c r="A388" s="6">
         <v>44909</v>
       </c>
       <c r="B388" s="2" t="s">
@@ -16445,14 +16439,14 @@
         <v>3</v>
       </c>
       <c r="L388" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M388">
         <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A389" s="7">
+      <c r="A389" s="6">
         <v>44910</v>
       </c>
       <c r="B389" s="2" t="s">
@@ -16486,14 +16480,14 @@
         <v>1</v>
       </c>
       <c r="L389" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M389">
         <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A390" s="7">
+      <c r="A390" s="6">
         <v>44910</v>
       </c>
       <c r="B390" s="2" t="s">
@@ -16527,14 +16521,14 @@
         <v>1</v>
       </c>
       <c r="L390" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M390">
         <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A391" s="7">
+      <c r="A391" s="6">
         <v>44912</v>
       </c>
       <c r="B391" s="2" t="s">
@@ -16568,14 +16562,14 @@
         <v>1</v>
       </c>
       <c r="L391" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M391">
         <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A392" s="7">
+      <c r="A392" s="6">
         <v>44917</v>
       </c>
       <c r="B392" s="2" t="s">
@@ -16609,14 +16603,14 @@
         <v>2</v>
       </c>
       <c r="L392" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M392">
         <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A393" s="7">
+      <c r="A393" s="6">
         <v>44918</v>
       </c>
       <c r="B393" s="2" t="s">
@@ -16650,14 +16644,14 @@
         <v>1</v>
       </c>
       <c r="L393" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M393">
         <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A394" s="7">
+      <c r="A394" s="6">
         <v>44919</v>
       </c>
       <c r="B394" s="2" t="s">
@@ -16691,14 +16685,14 @@
         <v>1</v>
       </c>
       <c r="L394" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M394">
         <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A395" s="7">
+      <c r="A395" s="6">
         <v>44920</v>
       </c>
       <c r="B395" s="2" t="s">
@@ -16732,14 +16726,14 @@
         <v>2</v>
       </c>
       <c r="L395" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M395">
         <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A396" s="7">
+      <c r="A396" s="6">
         <v>44920</v>
       </c>
       <c r="B396" s="2" t="s">
@@ -16773,14 +16767,14 @@
         <v>1</v>
       </c>
       <c r="L396" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M396">
         <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A397" s="7">
+      <c r="A397" s="6">
         <v>44921</v>
       </c>
       <c r="B397" s="2" t="s">
@@ -16814,14 +16808,14 @@
         <v>2</v>
       </c>
       <c r="L397" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M397">
         <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A398" s="7">
+      <c r="A398" s="6">
         <v>44922</v>
       </c>
       <c r="B398" s="2" t="s">
@@ -16855,14 +16849,14 @@
         <v>1</v>
       </c>
       <c r="L398" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M398">
         <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A399" s="7">
+      <c r="A399" s="6">
         <v>44923</v>
       </c>
       <c r="B399" s="2" t="s">
@@ -16896,14 +16890,14 @@
         <v>1</v>
       </c>
       <c r="L399" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M399">
         <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A400" s="7">
+      <c r="A400" s="6">
         <v>44924</v>
       </c>
       <c r="B400" s="2" t="s">
@@ -16937,14 +16931,14 @@
         <v>3</v>
       </c>
       <c r="L400" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M400">
         <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A401" s="7">
+      <c r="A401" s="6">
         <v>44926</v>
       </c>
       <c r="B401" s="2" t="s">
@@ -16978,7 +16972,7 @@
         <v>1</v>
       </c>
       <c r="L401" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M401">
         <v>0</v>
@@ -16993,9 +16987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4537128D-E760-4C52-A3B4-A910D8CA846F}">
   <dimension ref="A1:G1600"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17007,22 +16999,22 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
